--- a/doc/log/log_201605020406_sunxinxin.xlsx
+++ b/doc/log/log_201605020406_sunxinxin.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11940" windowHeight="3885" activeTab="0"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75" count="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142">
   <si>
     <t>日期</t>
   </si>
@@ -141,6 +142,9 @@
     <t>遇到一些问题</t>
   </si>
   <si>
+    <t>继续完成任务</t>
+  </si>
+  <si>
     <t>2018.5.12</t>
   </si>
   <si>
@@ -198,77 +202,604 @@
     <t>2018.5.17</t>
   </si>
   <si>
-    <t>建立homework</t>
+    <t>建立homework。domain</t>
   </si>
   <si>
     <t>建立成功</t>
   </si>
   <si>
-    <t>13:00-16:00</t>
-  </si>
-  <si>
     <t>2018.5.18</t>
   </si>
   <si>
-    <t>15:00-17:00</t>
-  </si>
-  <si>
-    <t>发现环境不统一，重新调配</t>
-  </si>
-  <si>
-    <t>配置成功</t>
+    <t>建立homework.dao并且进行测试</t>
+  </si>
+  <si>
+    <t>没有完成</t>
   </si>
   <si>
     <t>2018.5.19</t>
   </si>
   <si>
-    <t>16:00-18:00</t>
-  </si>
-  <si>
-    <t>项目归位统一，可以运行</t>
+    <t>学习jpa的相关配置和知识</t>
+  </si>
+  <si>
+    <t>看视频来学习相关知识</t>
+  </si>
+  <si>
+    <t>学习selrvlet</t>
   </si>
   <si>
     <t>2018.5.20</t>
   </si>
   <si>
-    <t>13:00-15:00</t>
-  </si>
-  <si>
-    <t>再次建立自己的homework</t>
-  </si>
-  <si>
-    <t>建立成功</t>
+    <t>2018.5.21</t>
+  </si>
+  <si>
+    <t>2018.5.22</t>
+  </si>
+  <si>
+    <t>2018.5.23</t>
+  </si>
+  <si>
+    <t>统一插入100条数据，保证测试数据量匹配</t>
+  </si>
+  <si>
+    <t>帮助队员完成相关操作</t>
+  </si>
+  <si>
+    <t>同一文件不同内容引起一些冲突</t>
+  </si>
+  <si>
+    <t>2018.5.24</t>
+  </si>
+  <si>
+    <t>统一插入函数和AnminEneityGenerticor函数格式</t>
+  </si>
+  <si>
+    <t>解决相关问题并执行原计划</t>
+  </si>
+  <si>
+    <t>学习事务</t>
+  </si>
+  <si>
+    <t>2018.5.25</t>
+  </si>
+  <si>
+    <t>学习事务，添加@Transprition</t>
+  </si>
+  <si>
+    <t>自己写并测试查询程序</t>
+  </si>
+  <si>
+    <t>查询功能成功，学习springmvc</t>
+  </si>
+  <si>
+    <t>2018.5.26</t>
+  </si>
+  <si>
+    <t>学习springmvc三分之一</t>
+  </si>
+  <si>
+    <t>配置相关文件</t>
+  </si>
+  <si>
+    <t>继续学习springmvc</t>
+  </si>
+  <si>
+    <t>2018.5.27</t>
+  </si>
+  <si>
+    <t>学习springmvc</t>
+  </si>
+  <si>
+    <t>自己做测试程序</t>
+  </si>
+  <si>
+    <t>实现简单的请求和响应操作</t>
+  </si>
+  <si>
+    <t>2018.5.28</t>
+  </si>
+  <si>
+    <t>深入理解springmcv原理</t>
+  </si>
+  <si>
+    <t>测试Test。</t>
+  </si>
+  <si>
+    <t>2018.5.29</t>
+  </si>
+  <si>
+    <t>2018.5.30</t>
+  </si>
+  <si>
+    <t>做测试，发现问题</t>
+  </si>
+  <si>
+    <t>jar包不对</t>
+  </si>
+  <si>
+    <t>2018.5.31</t>
+  </si>
+  <si>
+    <t>更新文件</t>
+  </si>
+  <si>
+    <t>做测试</t>
+  </si>
+  <si>
+    <t>2018.6.1</t>
+  </si>
+  <si>
+    <t>督促大家跟上进度</t>
+  </si>
+  <si>
+    <t>各个实体类实现查询dome</t>
+  </si>
+  <si>
+    <t>2018.6.2</t>
+  </si>
+  <si>
+    <t>学习js框架</t>
+  </si>
+  <si>
+    <t>2018.6.3</t>
+  </si>
+  <si>
+    <t>2018.6.4</t>
+  </si>
+  <si>
+    <t>2018.6.5</t>
+  </si>
+  <si>
+    <t>2018.6.6</t>
+  </si>
+  <si>
+    <t>2018.6.7</t>
+  </si>
+  <si>
+    <t>2018.6.8</t>
+  </si>
+  <si>
+    <t>2018.6.9</t>
+  </si>
+  <si>
+    <t>学习js框架，调试程序</t>
+  </si>
+  <si>
+    <t>服务器无法正常启动</t>
+  </si>
+  <si>
+    <t>2018.6.10</t>
+  </si>
+  <si>
+    <t>查看配置文件</t>
+  </si>
+  <si>
+    <t>看博客，修改配置文件</t>
+  </si>
+  <si>
+    <t>修改配置文件无效，锁定问题是映射问题</t>
+  </si>
+  <si>
+    <t>2018.6.11</t>
+  </si>
+  <si>
+    <t>查看Controller.java文件</t>
+  </si>
+  <si>
+    <t>有成员的映射地址没有改对</t>
+  </si>
+  <si>
+    <t>修改映射地址，并重新测试</t>
+  </si>
+  <si>
+    <t>2018.6.12</t>
+  </si>
+  <si>
+    <t>服务器可以正常启动</t>
+  </si>
+  <si>
+    <t>只能返回json，不能返回html</t>
+  </si>
+  <si>
+    <t>经思考认为是js文件问题</t>
+  </si>
+  <si>
+    <t>2018.6.13</t>
+  </si>
+  <si>
+    <t>导入excel表格，并传入到数据库</t>
+  </si>
+  <si>
+    <t>导入成功</t>
+  </si>
+  <si>
+    <t>2018.6.14</t>
+  </si>
+  <si>
+    <t>建立teacherEntity</t>
+  </si>
+  <si>
+    <t>建立未完成</t>
+  </si>
+  <si>
+    <t>2018.6.15</t>
+  </si>
+  <si>
+    <t>2018.6.16</t>
+  </si>
+  <si>
+    <t>编写js文件</t>
+  </si>
+  <si>
+    <t>2018.6.17</t>
+  </si>
+  <si>
+    <t>2018.6.18</t>
+  </si>
+  <si>
+    <t>页面加载完成</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="21" formatCode="h:mm:ss"/>
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="20">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <sz val="11"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -276,9 +807,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -286,17 +1059,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="21" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -552,27 +1378,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A12">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" customWidth="1" width="17.363281" style="0"/>
-    <col min="3" max="3" customWidth="1" width="46.0" style="0"/>
-    <col min="4" max="4" customWidth="1" width="22.0" style="0"/>
-    <col min="257" max="16384" width="9" style="0" hidden="0"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="17.3666666666667" customWidth="1"/>
+    <col min="3" max="3" width="46" customWidth="1"/>
+    <col min="4" max="4" width="25.375" customWidth="1"/>
+    <col min="5" max="5" width="37.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:8">
+    <row r="1" ht="30" customHeight="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -589,7 +1416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="8:8" ht="54.0" customHeight="1">
+    <row r="2" ht="30" customHeight="1" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -606,7 +1433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="8:8">
+    <row r="3" ht="30" customHeight="1" spans="1:4">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -620,7 +1447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="8:8">
+    <row r="4" ht="30" customHeight="1" spans="1:4">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -634,7 +1461,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="8:8">
+    <row r="5" ht="30" customHeight="1" spans="1:4">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -648,7 +1475,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="8:8">
+    <row r="6" ht="30" customHeight="1" spans="1:4">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -662,7 +1489,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="8:8">
+    <row r="7" ht="30" customHeight="1" spans="1:4">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -676,7 +1503,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="8:8">
+    <row r="8" ht="30" customHeight="1" spans="1:4">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -690,7 +1517,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="8:8">
+    <row r="9" ht="30" customHeight="1" spans="1:4">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -704,7 +1531,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="8:8">
+    <row r="10" ht="30" customHeight="1" spans="1:4">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -718,7 +1545,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="8:8">
+    <row r="11" ht="30" customHeight="1" spans="1:4">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -732,7 +1559,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="8:8">
+    <row r="12" ht="30" customHeight="1" spans="1:5">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -745,134 +1572,640 @@
       <c r="D12" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="8:8">
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" ht="30" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="8:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" ht="30" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="8:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" ht="30" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="8:8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" ht="30" customHeight="1" spans="1:4">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" ht="30" customHeight="1" spans="1:4">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="8:8" ht="15.05">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" ht="30" customHeight="1" spans="1:4">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" t="s">
         <v>63</v>
       </c>
-      <c r="C18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="8:8" ht="15.05">
+    </row>
+    <row r="19" ht="30" customHeight="1" spans="1:4">
       <c r="A19" t="s">
         <v>64</v>
       </c>
       <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
         <v>65</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>66</v>
       </c>
-      <c r="D19" t="s">
+    </row>
+    <row r="20" ht="30" customHeight="1" spans="1:5">
+      <c r="A20" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="20" spans="8:8" ht="15.05">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
         <v>68</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>69</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>70</v>
       </c>
-      <c r="D20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="8:8" ht="15.05">
+    </row>
+    <row r="21" ht="30" customHeight="1" spans="1:5">
       <c r="A21" t="s">
         <v>71</v>
       </c>
       <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" ht="30" customHeight="1" spans="1:5">
+      <c r="A22" t="s">
         <v>72</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" ht="30" customHeight="1" spans="1:5">
+      <c r="A23" t="s">
         <v>73</v>
       </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" ht="30" customHeight="1" spans="1:5">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" ht="30" customHeight="1" spans="1:5">
+      <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" ht="30" customHeight="1" spans="1:5">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" ht="30" customHeight="1" spans="1:5">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" ht="30" customHeight="1" spans="1:5">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" ht="30" customHeight="1" spans="1:5">
+      <c r="A29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" ht="30" customHeight="1" spans="1:5">
+      <c r="A30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" ht="30" customHeight="1" spans="1:5">
+      <c r="A31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" ht="30" customHeight="1" spans="1:5">
+      <c r="A32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" ht="30" customHeight="1" spans="1:5">
+      <c r="A33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" ht="30" customHeight="1" spans="1:5">
+      <c r="A34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" ht="30" customHeight="1" spans="1:5">
+      <c r="A35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" ht="30" customHeight="1" spans="1:5">
+      <c r="A36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" ht="30" customHeight="1" spans="1:5">
+      <c r="A37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" ht="30" customHeight="1" spans="1:5">
+      <c r="A38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" ht="30" customHeight="1" spans="1:5">
+      <c r="A39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" ht="30" customHeight="1" spans="1:5">
+      <c r="A40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" ht="30" customHeight="1" spans="1:5">
+      <c r="A41" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" ht="30" customHeight="1" spans="1:5">
+      <c r="A42" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" ht="30" customHeight="1" spans="1:5">
+      <c r="A43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" t="s">
+        <v>124</v>
+      </c>
+      <c r="E43" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" ht="30" customHeight="1" spans="1:5">
+      <c r="A44" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" ht="30" customHeight="1" spans="1:5">
+      <c r="A45" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" t="s">
+        <v>132</v>
+      </c>
+      <c r="E45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" ht="30" customHeight="1" spans="1:5">
+      <c r="A46" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" ht="30" customHeight="1" spans="1:5">
+      <c r="A47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" ht="30" customHeight="1" spans="1:5">
+      <c r="A48" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" t="s">
+        <v>135</v>
+      </c>
+      <c r="E48" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" ht="30" customHeight="1" spans="1:5">
+      <c r="A49" t="s">
+        <v>139</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" ht="30" customHeight="1" spans="1:5">
+      <c r="A50" t="s">
+        <v>140</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1.0" bottom="1.0" header="0.511805555555556" footer="0.511805555555556"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}"/>
-  </extLst>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/log/log_201605020406_sunxinxin.xlsx
+++ b/doc/log/log_201605020406_sunxinxin.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172">
   <si>
     <t>日期</t>
   </si>
@@ -440,6 +440,96 @@
   </si>
   <si>
     <t>页面加载完成</t>
+  </si>
+  <si>
+    <t>2018.6.19</t>
+  </si>
+  <si>
+    <t>13：00-16：30</t>
+  </si>
+  <si>
+    <t>学习jenkins</t>
+  </si>
+  <si>
+    <t>创建了一个项目</t>
+  </si>
+  <si>
+    <t>2018.6.20</t>
+  </si>
+  <si>
+    <t>学习JIRA</t>
+  </si>
+  <si>
+    <t>还在学习</t>
+  </si>
+  <si>
+    <t>2018.6.21</t>
+  </si>
+  <si>
+    <t>2018.6.22</t>
+  </si>
+  <si>
+    <t>2018.6.23</t>
+  </si>
+  <si>
+    <t>学习vue</t>
+  </si>
+  <si>
+    <t>2018.6.24</t>
+  </si>
+  <si>
+    <t>2018.6.25</t>
+  </si>
+  <si>
+    <t>2018.6.26</t>
+  </si>
+  <si>
+    <t>2018.6.27</t>
+  </si>
+  <si>
+    <t>完成查询页面</t>
+  </si>
+  <si>
+    <t>2018.6.28</t>
+  </si>
+  <si>
+    <t>学习jira的使用方法</t>
+  </si>
+  <si>
+    <t>2018.6.29</t>
+  </si>
+  <si>
+    <t>2018.6.30</t>
+  </si>
+  <si>
+    <t>2018.7.01</t>
+  </si>
+  <si>
+    <t>2018.7.02</t>
+  </si>
+  <si>
+    <t>创建成功</t>
+  </si>
+  <si>
+    <t>2018.7.03</t>
+  </si>
+  <si>
+    <t>检查项目疏漏之处</t>
+  </si>
+  <si>
+    <t>修改了部分文档，文件</t>
+  </si>
+  <si>
+    <t>2018.7.04</t>
+  </si>
+  <si>
+    <t>2018.7.05</t>
+  </si>
+  <si>
+    <t>完成项目必要文档</t>
+  </si>
+  <si>
+    <t>2018.7.06</t>
   </si>
 </sst>
 </file>
@@ -448,9 +538,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -463,6 +553,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,14 +602,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -521,7 +610,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,6 +649,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -590,13 +687,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -614,187 +704,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,21 +907,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -843,6 +918,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -867,6 +951,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -896,15 +995,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -913,10 +1003,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -925,133 +1015,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1384,10 +1474,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67:D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2201,9 +2291,306 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="2"/>
-    </row>
+    <row r="51" ht="30" customHeight="1" spans="1:5">
+      <c r="A51" t="s">
+        <v>142</v>
+      </c>
+      <c r="B51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" t="s">
+        <v>145</v>
+      </c>
+      <c r="E51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" ht="30" customHeight="1" spans="1:5">
+      <c r="A52" t="s">
+        <v>146</v>
+      </c>
+      <c r="B52" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D52" t="s">
+        <v>148</v>
+      </c>
+      <c r="E52" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" ht="30" customHeight="1" spans="1:5">
+      <c r="A53" t="s">
+        <v>149</v>
+      </c>
+      <c r="B53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" t="s">
+        <v>147</v>
+      </c>
+      <c r="D53" t="s">
+        <v>148</v>
+      </c>
+      <c r="E53" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" ht="30" customHeight="1" spans="1:5">
+      <c r="A54" t="s">
+        <v>150</v>
+      </c>
+      <c r="B54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C54" t="s">
+        <v>147</v>
+      </c>
+      <c r="D54" t="s">
+        <v>148</v>
+      </c>
+      <c r="E54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" ht="30" customHeight="1" spans="1:5">
+      <c r="A55" t="s">
+        <v>151</v>
+      </c>
+      <c r="B55" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" t="s">
+        <v>152</v>
+      </c>
+      <c r="D55" t="s">
+        <v>148</v>
+      </c>
+      <c r="E55" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" ht="30" customHeight="1" spans="1:5">
+      <c r="A56" t="s">
+        <v>153</v>
+      </c>
+      <c r="B56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56" t="s">
+        <v>148</v>
+      </c>
+      <c r="E56" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" ht="30" customHeight="1" spans="1:5">
+      <c r="A57" t="s">
+        <v>154</v>
+      </c>
+      <c r="B57" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" t="s">
+        <v>152</v>
+      </c>
+      <c r="D57" t="s">
+        <v>148</v>
+      </c>
+      <c r="E57" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" ht="30" customHeight="1" spans="1:5">
+      <c r="A58" t="s">
+        <v>155</v>
+      </c>
+      <c r="B58" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" t="s">
+        <v>152</v>
+      </c>
+      <c r="D58" t="s">
+        <v>148</v>
+      </c>
+      <c r="E58" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" ht="30" customHeight="1" spans="1:5">
+      <c r="A59" t="s">
+        <v>156</v>
+      </c>
+      <c r="B59" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" t="s">
+        <v>152</v>
+      </c>
+      <c r="D59" t="s">
+        <v>157</v>
+      </c>
+      <c r="E59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" ht="30" customHeight="1" spans="1:5">
+      <c r="A60" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" t="s">
+        <v>159</v>
+      </c>
+      <c r="D60" t="s">
+        <v>148</v>
+      </c>
+      <c r="E60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" ht="30" customHeight="1" spans="1:5">
+      <c r="A61" t="s">
+        <v>160</v>
+      </c>
+      <c r="B61" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" t="s">
+        <v>159</v>
+      </c>
+      <c r="D61" t="s">
+        <v>148</v>
+      </c>
+      <c r="E61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" ht="30" customHeight="1" spans="1:5">
+      <c r="A62" t="s">
+        <v>161</v>
+      </c>
+      <c r="B62" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" t="s">
+        <v>159</v>
+      </c>
+      <c r="D62" t="s">
+        <v>148</v>
+      </c>
+      <c r="E62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" ht="30" customHeight="1" spans="1:5">
+      <c r="A63" t="s">
+        <v>162</v>
+      </c>
+      <c r="B63" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63" t="s">
+        <v>159</v>
+      </c>
+      <c r="D63" t="s">
+        <v>148</v>
+      </c>
+      <c r="E63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" ht="30" customHeight="1" spans="1:5">
+      <c r="A64" t="s">
+        <v>163</v>
+      </c>
+      <c r="B64" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" t="s">
+        <v>159</v>
+      </c>
+      <c r="D64" t="s">
+        <v>164</v>
+      </c>
+      <c r="E64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" ht="30" customHeight="1" spans="1:4">
+      <c r="A65" t="s">
+        <v>165</v>
+      </c>
+      <c r="B65" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" t="s">
+        <v>166</v>
+      </c>
+      <c r="D65" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" ht="30" customHeight="1" spans="1:4">
+      <c r="A66" t="s">
+        <v>168</v>
+      </c>
+      <c r="B66" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" t="s">
+        <v>166</v>
+      </c>
+      <c r="D66" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" ht="30" customHeight="1" spans="1:4">
+      <c r="A67" t="s">
+        <v>169</v>
+      </c>
+      <c r="B67" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" t="s">
+        <v>170</v>
+      </c>
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" ht="30" customHeight="1" spans="1:4">
+      <c r="A68" t="s">
+        <v>171</v>
+      </c>
+      <c r="B68" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68" t="s">
+        <v>170</v>
+      </c>
+      <c r="D68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" ht="30" customHeight="1"/>
+    <row r="70" ht="30" customHeight="1"/>
+    <row r="71" ht="30" customHeight="1"/>
+    <row r="72" ht="30" customHeight="1"/>
+    <row r="73" ht="30" customHeight="1"/>
+    <row r="74" ht="20" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
